--- a/Outputs/reports/接口自动化测试详细结果记录.xlsx
+++ b/Outputs/reports/接口自动化测试详细结果记录.xlsx
@@ -39,7 +39,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="病历复印审核拒绝流程" sheetId="30" state="visible" r:id="rId30"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="预约挂号流程（固定取值）" sheetId="31" state="visible" r:id="rId31"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="预约挂号流程（随机取值）" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="readSheet" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="34" state="visible" r:id="rId34"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17469,6 +17470,119 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="20" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="7" max="7"/>
+    <col width="12" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="20" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>request_url</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>request_body</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>realResult</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>testResult</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="120" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>method</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>request_url</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>request_body</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>expected</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>response_text</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>testResult</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
